--- a/xlsx/奴隸_intext.xlsx
+++ b/xlsx/奴隸_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="983">
   <si>
     <t>奴隸</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Chukri System</t>
   </si>
   <si>
-    <t>政策_政策_美國_奴隸</t>
+    <t>体育运动_体育运动_古埃及_奴隸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
@@ -2448,6 +2448,12 @@
   </si>
   <si>
     <t>en-Ghetto benches</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8C%97%E8%BC%95%E5%8D%97</t>
+  </si>
+  <si>
+    <t>重北輕南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
@@ -3306,7 +3312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15453,7 +15459,7 @@
         <v>814</v>
       </c>
       <c r="G419" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15482,7 +15488,7 @@
         <v>816</v>
       </c>
       <c r="G420" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -15598,7 +15604,7 @@
         <v>824</v>
       </c>
       <c r="G424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15627,7 +15633,7 @@
         <v>826</v>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15685,7 +15691,7 @@
         <v>830</v>
       </c>
       <c r="G427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15714,7 +15720,7 @@
         <v>832</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -15772,7 +15778,7 @@
         <v>836</v>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -15801,7 +15807,7 @@
         <v>838</v>
       </c>
       <c r="G431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16062,7 +16068,7 @@
         <v>856</v>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -16120,7 +16126,7 @@
         <v>860</v>
       </c>
       <c r="G442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -16149,7 +16155,7 @@
         <v>862</v>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -16207,7 +16213,7 @@
         <v>866</v>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -16236,7 +16242,7 @@
         <v>868</v>
       </c>
       <c r="G446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -16265,7 +16271,7 @@
         <v>870</v>
       </c>
       <c r="G447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H447" t="s">
         <v>4</v>
@@ -16352,7 +16358,7 @@
         <v>876</v>
       </c>
       <c r="G450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16381,7 +16387,7 @@
         <v>878</v>
       </c>
       <c r="G451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -16404,10 +16410,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="F452" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16433,10 +16439,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F453" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16497,7 +16503,7 @@
         <v>884</v>
       </c>
       <c r="G455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -16526,7 +16532,7 @@
         <v>886</v>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -16903,7 +16909,7 @@
         <v>912</v>
       </c>
       <c r="G469" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -16932,7 +16938,7 @@
         <v>914</v>
       </c>
       <c r="G470" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -16961,7 +16967,7 @@
         <v>916</v>
       </c>
       <c r="G471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -16990,7 +16996,7 @@
         <v>918</v>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17048,7 +17054,7 @@
         <v>922</v>
       </c>
       <c r="G474" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -17077,7 +17083,7 @@
         <v>924</v>
       </c>
       <c r="G475" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H475" t="s">
         <v>4</v>
@@ -17106,7 +17112,7 @@
         <v>926</v>
       </c>
       <c r="G476" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -17477,10 +17483,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>65</v>
+        <v>951</v>
       </c>
       <c r="F489" t="s">
-        <v>66</v>
+        <v>952</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17506,10 +17512,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>951</v>
+        <v>65</v>
       </c>
       <c r="F490" t="s">
-        <v>952</v>
+        <v>66</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17599,7 +17605,7 @@
         <v>958</v>
       </c>
       <c r="G493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -17628,7 +17634,7 @@
         <v>960</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17802,7 +17808,7 @@
         <v>972</v>
       </c>
       <c r="G500" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -17860,7 +17866,7 @@
         <v>976</v>
       </c>
       <c r="G502" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -17912,13 +17918,13 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>5</v>
+        <v>979</v>
       </c>
       <c r="F504" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G504" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -17944,15 +17950,44 @@
         <v>5</v>
       </c>
       <c r="F505" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G505" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H505" t="s">
         <v>4</v>
       </c>
       <c r="I505" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1</v>
+      </c>
+      <c r="D506" t="n">
+        <v>505</v>
+      </c>
+      <c r="E506" t="s">
+        <v>5</v>
+      </c>
+      <c r="F506" t="s">
+        <v>982</v>
+      </c>
+      <c r="G506" t="n">
+        <v>1</v>
+      </c>
+      <c r="H506" t="s">
+        <v>4</v>
+      </c>
+      <c r="I506" t="n">
         <v>3</v>
       </c>
     </row>
